--- a/02_output/12_statistical_tests/plant_mixed_model_tests.xlsx
+++ b/02_output/12_statistical_tests/plant_mixed_model_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/12_statistical_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_EA96733C00296F8B6CE62AFA5F3D01DBB2D9C52A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1826CE-C2E9-4D99-AA9D-CFE16A0EF827}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_EA96733C00296F8B6CE62AFA5F3D01DBB2D9C52A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93759875-1B87-436E-A6D1-384EAF1AF338}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
